--- a/Traduzido/PTBR/Lang/PTBR/Game/Job.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Job.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EEB954-30C6-4BAF-B303-777F254D8A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AC9D4-DD8F-43A2-B48E-FE7FA58D5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Job!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -277,66 +277,6 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>guerreiro</t>
-  </si>
-  <si>
-    <t>ladrão</t>
-  </si>
-  <si>
-    <t>mago</t>
-  </si>
-  <si>
-    <t>fazendeiro</t>
-  </si>
-  <si>
-    <t>arqueiro</t>
-  </si>
-  <si>
-    <t>mago de batalha</t>
-  </si>
-  <si>
-    <t>turista</t>
-  </si>
-  <si>
-    <t>pianista</t>
-  </si>
-  <si>
-    <t>sacerdote</t>
-  </si>
-  <si>
-    <t>atirador</t>
-  </si>
-  <si>
-    <t>inquisidor</t>
-  </si>
-  <si>
-    <t>paladino</t>
-  </si>
-  <si>
-    <t>bruxa</t>
-  </si>
-  <si>
-    <t>executor</t>
-  </si>
-  <si>
-    <t>sábio da espada</t>
-  </si>
-  <si>
-    <t>predador</t>
-  </si>
-  <si>
-    <t>bardo</t>
-  </si>
-  <si>
-    <t>alquimista</t>
-  </si>
-  <si>
-    <t>defensor</t>
-  </si>
-  <si>
-    <t>nenhum</t>
-  </si>
-  <si>
     <t>Guerreiros usam seus corpos como armas, destruindo implacavelmente os obstáculos em seu caminho. Embora possam não ser habilidosos com magia, sua impressionante destreza em combate é inegável.</t>
   </si>
   <si>
@@ -380,6 +320,66 @@
   </si>
   <si>
     <t>Sábios da espada são praticantes espirituais que transitam entre o mundo dos espíritos e o reino mortal, com o poder de repelir espíritos malignos. Habilidosos nas artes de maldições e adivinhação, dominam a técnica de aprimorar armas com talismãs infundidos com feitiçarias.</t>
+  </si>
+  <si>
+    <t>Guerreiro</t>
+  </si>
+  <si>
+    <t>Ladrão</t>
+  </si>
+  <si>
+    <t>Mago</t>
+  </si>
+  <si>
+    <t>Fazendeiro</t>
+  </si>
+  <si>
+    <t>Arqueiro</t>
+  </si>
+  <si>
+    <t>Mago de Batalha</t>
+  </si>
+  <si>
+    <t>Turista</t>
+  </si>
+  <si>
+    <t>Pianista</t>
+  </si>
+  <si>
+    <t>Sacerdote</t>
+  </si>
+  <si>
+    <t>Atirador</t>
+  </si>
+  <si>
+    <t>Inquisidor</t>
+  </si>
+  <si>
+    <t>Paladino</t>
+  </si>
+  <si>
+    <t>Bruxa</t>
+  </si>
+  <si>
+    <t>Executor</t>
+  </si>
+  <si>
+    <t>Sábio da Espada</t>
+  </si>
+  <si>
+    <t>Predador</t>
+  </si>
+  <si>
+    <t>Bardo</t>
+  </si>
+  <si>
+    <t>Alquimista</t>
+  </si>
+  <si>
+    <t>Defensor</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F17"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
         <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -814,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -857,7 +857,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -866,7 +866,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -883,7 +883,7 @@
         <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -892,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -909,7 +909,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -918,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -935,7 +935,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -944,7 +944,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -961,7 +961,7 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -970,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -987,7 +987,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -996,7 +996,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -1013,7 +1013,7 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -1022,7 +1022,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -1039,7 +1039,7 @@
         <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -1048,7 +1048,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1065,7 +1065,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1074,7 +1074,7 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1100,7 +1100,7 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
@@ -1117,7 +1117,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -1126,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
@@ -1143,7 +1143,7 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -1152,7 +1152,7 @@
         <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1169,7 +1169,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
@@ -1178,7 +1178,7 @@
         <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
@@ -1195,7 +1195,7 @@
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -1212,7 +1212,7 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -1229,7 +1229,7 @@
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
@@ -1246,7 +1246,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1263,7 +1263,7 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Job.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Job.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AC9D4-DD8F-43A2-B48E-FE7FA58D5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B0393-038E-44DF-A6BB-58C42B2A9568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
